--- a/doc/english_study_note/file/発音記号について印刷用.xlsx
+++ b/doc/english_study_note/file/発音記号について印刷用.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nqg26\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\development\project\rust_study_note\doc\english_study_note\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927D3EE1-E64F-492B-93FB-BCCFD241374F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477CA6D6-EB7D-4A44-8F58-FA7839518863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="18700" xr2:uid="{8C037ADD-A66C-4511-B912-4C86ABD05D4C}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="21600" windowHeight="13570" xr2:uid="{8C037ADD-A66C-4511-B912-4C86ABD05D4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -499,29 +499,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
@@ -548,7 +542,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -628,22 +622,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>63501</xdr:colOff>
+      <xdr:colOff>25400</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>82551</xdr:rowOff>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>577850</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>151192</xdr:rowOff>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>53568</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6">
+        <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{087DC4E1-A519-DCFA-1F81-EA0DD2371C68}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF1C60B0-2E94-2968-F2C9-227487795232}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -659,8 +653,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6134101" y="82551"/>
-          <a:ext cx="5657849" cy="2811841"/>
+          <a:off x="6096000" y="165100"/>
+          <a:ext cx="5753100" cy="2860268"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -972,7 +966,7 @@
   <dimension ref="A2:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -988,517 +982,508 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="F10" s="4"/>
-      <c r="I10" s="2"/>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="I11" s="2"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="I12" s="2"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="I13" s="2"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="9"/>
-      <c r="I14" s="2"/>
-      <c r="N14" s="20" t="s">
+      <c r="F14" s="6"/>
+      <c r="G14" s="7"/>
+      <c r="N14" s="18" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="11"/>
-      <c r="I15" s="2"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="15" t="s">
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="11"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="15" t="s">
+      <c r="F16" s="6"/>
+      <c r="G16" s="9"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="17" t="s">
+      <c r="B17" s="16"/>
+      <c r="C17" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="11"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="15" t="s">
+      <c r="F17" s="6"/>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="15" t="s">
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="11"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="15" t="s">
+      <c r="F18" s="6"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="17" t="s">
+      <c r="B19" s="16"/>
+      <c r="C19" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="15" t="s">
+      <c r="F19" s="6"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="15" t="s">
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="15" t="s">
+      <c r="F20" s="6"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="15" t="s">
+      <c r="F21" s="6"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="15" t="s">
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="15" t="s">
+      <c r="F22" s="6"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="17" t="s">
+      <c r="B23" s="16"/>
+      <c r="C23" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="15" t="s">
+      <c r="F23" s="6"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="15" t="s">
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="11"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="15" t="s">
+      <c r="F24" s="6"/>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="17" t="s">
+      <c r="B25" s="16"/>
+      <c r="C25" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="15" t="s">
+      <c r="F25" s="10"/>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="15" t="s">
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="15" t="s">
+      <c r="F26" s="10"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="17" t="s">
+      <c r="B27" s="16"/>
+      <c r="C27" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="11"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="15" t="s">
+      <c r="F27" s="10"/>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="15" t="s">
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="11"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="15" t="s">
+      <c r="F28" s="10"/>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="17"/>
+      <c r="C29" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="11"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="9"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="15" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="11"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="9"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="15" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="15" t="s">
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="F31" s="12"/>
-      <c r="G31" s="13"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="11"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="15" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="13"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="11"/>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="15" t="s">
+      <c r="B33" s="16"/>
+      <c r="C33" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="13"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="11"/>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="15" t="s">
+      <c r="B34" s="17"/>
+      <c r="C34" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="F34" s="14"/>
-      <c r="G34" s="13"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="11"/>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="F35" s="14"/>
-      <c r="G35" s="13"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="11"/>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D36" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="F36" s="14"/>
-      <c r="G36" s="13"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="11"/>
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="15" t="s">
+      <c r="B37" s="16"/>
+      <c r="C37" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D37" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F37" s="14"/>
-      <c r="G37" s="13"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="11"/>
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="15" t="s">
+      <c r="B38" s="17"/>
+      <c r="C38" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D38" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="F38" s="14"/>
-      <c r="G38" s="11"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="9"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="E39" s="4"/>
-      <c r="G39" s="4"/>
+      <c r="E39" s="2"/>
+      <c r="G39" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/doc/english_study_note/file/発音記号について印刷用.xlsx
+++ b/doc/english_study_note/file/発音記号について印刷用.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\development\project\rust_study_note\doc\english_study_note\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477CA6D6-EB7D-4A44-8F58-FA7839518863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378BEAAC-44AE-4163-820A-D7AA87F3A4DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="21600" windowHeight="13570" xr2:uid="{8C037ADD-A66C-4511-B912-4C86ABD05D4C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="18700" xr2:uid="{8C037ADD-A66C-4511-B912-4C86ABD05D4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="107">
   <si>
     <t>記号</t>
   </si>
@@ -111,22 +111,13 @@
     <t>[z]</t>
   </si>
   <si>
-    <t>[ʃ]</t>
-  </si>
-  <si>
     <t>③後部歯茎音</t>
   </si>
   <si>
-    <t>[ʒ]</t>
-  </si>
-  <si>
     <t>[h]</t>
   </si>
   <si>
     <t>⑧声門（音）</t>
-  </si>
-  <si>
-    <t>[ʧ]</t>
   </si>
   <si>
     <t>破擦音</t>
@@ -311,12 +302,152 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Three free throws</t>
+  </si>
+  <si>
+    <t>Fresh fried fish</t>
+  </si>
+  <si>
+    <t>Specific Pacific</t>
+  </si>
+  <si>
+    <t>Stupid superstition</t>
+  </si>
+  <si>
+    <t>Eddie edited it.</t>
+  </si>
+  <si>
+    <t>This is the sushi chef.</t>
+  </si>
+  <si>
+    <t>Truly rural</t>
+  </si>
+  <si>
+    <t>/θríː/ /fríː/ /θroz/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/fréʃ/ /frάɪd/ /fíʃ/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/spɪsífɪk/ /pəsífɪk/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/st(j)úːpɪd/ /sùːpɚstíʃən/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/édi/ /ˈɛdʌtʌd/ /ít/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/ðís/ /ɪz/ /ðə/ /ʃéf/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/trúːli/ /rˈʊ(ə)rəl/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A big black bug bit a big black bear.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fuzzy Wuzzy was a bear.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/fˈʌzi/ /ˈwʊzi/ /wəz/ /ə/ /béɚ/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vincent vowed vengeance.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/vínsnt/ /vaʊd/ /véndʒəns/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Which witch is which?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/(h)wítʃ/ /wítʃ/ /(h)wítʃ/ /ɪz/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ʧ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ʃ]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ʒ]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"Young King-Kong" and "The Ring"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/jˈʌŋ/ /kíŋ/ /kˈɔːŋ/ /ən(d)/ /ðə/ /ríŋ/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/ə/ /bíg/ /blˈæk/ /bˈʌg/ /bít/ /ə/ /blˈæk/ /béɚ/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>There is the cop with the cap on the cup</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/ðéɚ/ /ɪz/ /ðə/ /kɑp/ /wìð/ /ðə/ /kˈæp/ /ɔːn/ /ðə/ /kˈʌp/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Even a worm will turn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/íːv(ə)n/ /ə/ /wˈɚːm/ /wíl/ /tˈɚːn/</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,6 +512,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F2328"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -499,7 +637,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -556,6 +694,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -966,7 +1110,7 @@
   <dimension ref="A2:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -983,42 +1127,42 @@
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="E2" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="E3" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="E4" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="E5" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="E6" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="E7" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="E8" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="E9" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -1059,12 +1203,12 @@
         <v>3</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="7"/>
       <c r="N14" s="18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -1081,10 +1225,16 @@
         <v>7</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="9"/>
+      <c r="H15" t="s">
+        <v>76</v>
+      </c>
+      <c r="K15" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="13" t="s">
@@ -1096,13 +1246,18 @@
         <v>9</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="9"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H16" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="K16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="13" t="s">
         <v>10</v>
       </c>
@@ -1114,12 +1269,12 @@
         <v>7</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="13" t="s">
         <v>12</v>
       </c>
@@ -1129,12 +1284,18 @@
         <v>9</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H18" t="s">
+        <v>79</v>
+      </c>
+      <c r="K18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="13" t="s">
         <v>13</v>
       </c>
@@ -1146,12 +1307,18 @@
         <v>7</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="9"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H19" t="s">
+        <v>86</v>
+      </c>
+      <c r="K19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="13" t="s">
         <v>15</v>
       </c>
@@ -1161,12 +1328,12 @@
         <v>9</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="13" t="s">
         <v>16</v>
       </c>
@@ -1180,12 +1347,18 @@
         <v>7</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="9"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H21" t="s">
+        <v>80</v>
+      </c>
+      <c r="K21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="13" t="s">
         <v>19</v>
       </c>
@@ -1195,12 +1368,18 @@
         <v>9</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="9"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H22" t="s">
+        <v>87</v>
+      </c>
+      <c r="K22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="13" t="s">
         <v>20</v>
       </c>
@@ -1212,12 +1391,12 @@
         <v>7</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="13" t="s">
         <v>22</v>
       </c>
@@ -1227,12 +1406,18 @@
         <v>9</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="9"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H24" t="s">
+        <v>81</v>
+      </c>
+      <c r="K24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="13" t="s">
         <v>23</v>
       </c>
@@ -1244,12 +1429,18 @@
         <v>7</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="9"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="13" t="s">
         <v>24</v>
       </c>
@@ -1259,31 +1450,37 @@
         <v>9</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="9"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="13" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="B27" s="16"/>
       <c r="C27" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>7</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="9"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H27" t="s">
+        <v>91</v>
+      </c>
+      <c r="K27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="13" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="17"/>
@@ -1291,52 +1488,62 @@
         <v>9</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="9"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H28" t="s">
+        <v>92</v>
+      </c>
+      <c r="K28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B29" s="17"/>
       <c r="C29" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D29" s="13" t="s">
         <v>7</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="9"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="13" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D30" s="13" t="s">
         <v>7</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="9"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H30" t="s">
+        <v>100</v>
+      </c>
+      <c r="K30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -1344,18 +1551,23 @@
         <v>9</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="11"/>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H31" t="s">
+        <v>101</v>
+      </c>
+      <c r="K31" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>6</v>
@@ -1364,15 +1576,15 @@
         <v>9</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="11"/>
-      <c r="H32" s="1"/>
+      <c r="K32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B33" s="16"/>
       <c r="C33" s="13" t="s">
@@ -1382,15 +1594,17 @@
         <v>9</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="11"/>
-      <c r="H33" s="1"/>
+      <c r="H33" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B34" s="17"/>
       <c r="C34" s="13" t="s">
@@ -1400,18 +1614,20 @@
         <v>9</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F34" s="12"/>
       <c r="G34" s="11"/>
-      <c r="H34" s="1"/>
+      <c r="H34" s="20" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>11</v>
@@ -1420,63 +1636,66 @@
         <v>9</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="11"/>
-      <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D36" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="11"/>
-      <c r="H36" s="1"/>
+      <c r="H36" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B37" s="16"/>
       <c r="C37" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="11"/>
-      <c r="H37" s="1"/>
+      <c r="H37" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B38" s="17"/>
       <c r="C38" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D38" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="9"/>

--- a/doc/english_study_note/file/発音記号について印刷用.xlsx
+++ b/doc/english_study_note/file/発音記号について印刷用.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\development\project\rust_study_note\doc\english_study_note\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378BEAAC-44AE-4163-820A-D7AA87F3A4DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB497584-2D1D-48E5-B536-17C29CC8F51E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="18700" xr2:uid="{8C037ADD-A66C-4511-B912-4C86ABD05D4C}"/>
   </bookViews>
@@ -637,7 +637,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -694,12 +694,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -766,22 +760,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
+      <xdr:colOff>377623</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>53568</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="6" name="図 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF1C60B0-2E94-2968-F2C9-227487795232}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FACAE057-1507-4F40-89AB-887FCD232C8E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -797,8 +791,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6096000" y="165100"/>
-          <a:ext cx="5753100" cy="2860268"/>
+          <a:off x="6070600" y="228601"/>
+          <a:ext cx="5521123" cy="2743200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1107,10 +1101,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11481CDF-67B4-475C-A753-5F60B213C7D7}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A2:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1250,7 +1247,7 @@
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="19" t="s">
+      <c r="H16" t="s">
         <v>83</v>
       </c>
       <c r="K16" t="s">
@@ -1618,7 +1615,7 @@
       </c>
       <c r="F34" s="12"/>
       <c r="G34" s="11"/>
-      <c r="H34" s="20" t="s">
+      <c r="H34" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1706,8 +1703,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="67" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/english_study_note/file/発音記号について印刷用.xlsx
+++ b/doc/english_study_note/file/発音記号について印刷用.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\development\project\rust_study_note\doc\english_study_note\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB497584-2D1D-48E5-B536-17C29CC8F51E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378BEAAC-44AE-4163-820A-D7AA87F3A4DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="18700" xr2:uid="{8C037ADD-A66C-4511-B912-4C86ABD05D4C}"/>
   </bookViews>
@@ -637,7 +637,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -694,6 +694,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -760,22 +766,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>377623</xdr:colOff>
+      <xdr:colOff>635000</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>53568</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5">
+        <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FACAE057-1507-4F40-89AB-887FCD232C8E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF1C60B0-2E94-2968-F2C9-227487795232}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -791,8 +797,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6070600" y="228601"/>
-          <a:ext cx="5521123" cy="2743200"/>
+          <a:off x="6096000" y="165100"/>
+          <a:ext cx="5753100" cy="2860268"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1101,13 +1107,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11481CDF-67B4-475C-A753-5F60B213C7D7}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A2:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1247,7 +1250,7 @@
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="9"/>
-      <c r="H16" t="s">
+      <c r="H16" s="19" t="s">
         <v>83</v>
       </c>
       <c r="K16" t="s">
@@ -1615,7 +1618,7 @@
       </c>
       <c r="F34" s="12"/>
       <c r="G34" s="11"/>
-      <c r="H34" t="s">
+      <c r="H34" s="20" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1703,8 +1706,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="67" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>